--- a/biology/Botanique/Palicourea_debilis/Palicourea_debilis.xlsx
+++ b/biology/Botanique/Palicourea_debilis/Palicourea_debilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea debilis est une espèce herbacée d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea debilis est une herbes rampantes, densément villeuse à hirtelleuse. 
 Les feuilles mesurent 2,5-6 × 1-3 cm, avec des pétioles longs de 3-10 mm.
@@ -522,10 +536,10 @@
 La corolle est blanche à jaune pâle, avec un tube long de 5-7 mm, et des lobes longs de 2-2,5 mm.
 Le fruit subglobuleux, bleu vif, mesure 4-7 × 2-7 mm.
 Il comporte 2 pyrènes, ventralement avec une crête longitudinale basse, dorsalement lisse. 
-Les feuilles ont souvent la face supérieure vert foncé à l'exception d'une bande longitudinale argentée ou grise au milieu et les faces inférieures violet vif. Cependant, les feuilles de cette espèce sont parfois d'un vert clair ; la signification et la génétique de cette variation sont inconnues[5].
+Les feuilles ont souvent la face supérieure vert foncé à l'exception d'une bande longitudinale argentée ou grise au milieu et les faces inférieures violet vif. Cependant, les feuilles de cette espèce sont parfois d'un vert clair ; la signification et la génétique de cette variation sont inconnues.
 En 1953, Lemée en propose la description suivante de Palicourea debilis :
 « [Gamotopea] purpurea Brem. (Tapogomea p. Aubl., Cephælis p. W.). Herbe radicante aux nœuds inférieurs, poilue ; feuilles de 0,02-0,04 sur 9-19 mm., ovales ou oblongues obtuses ou aiguës, à base. arrondie, un peu poilues sur les 2 faces; pourprées en dessous, avec 9-11 paires de nervures, stipules à lobes de 2-3 mm. ; pédoncules, bractées et bractéoles poilus, fleurs à pédicelle court, calice poilu à segments linéaires, corolle de 7 mm., poilue vers le sommet, ovaire poilu, style de 6 mm. ; fruit ? - Maroni : camp Godebert. (R. Benoist). »
-— Albert Lemée, 1953.[6]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -553,9 +567,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea debilis est présent du Venezuela au Brésil, en passant par le Guyana, le Suriname, la Guyane et la Bolivie amazonienne[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea debilis est présent du Venezuela au Brésil, en passant par le Guyana, le Suriname, la Guyane et la Bolivie amazonienne.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea debilis pousse dans les forêts de plaine et de montagne, également sur des sols dérivés de roches ignées, à 100-1 100 m d'altitude[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea debilis pousse dans les forêts de plaine et de montagne, également sur des sols dérivés de roches ignées, à 100-1 100 m d'altitude.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea debilis sous le nom de Tapogomea purpurea et en a proposé le protologue suivant[7] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea debilis sous le nom de Tapogomea purpurea et en a proposé le protologue suivant : 
 « 3. TAPOGOMEA (purpurea) caulibus repentibus; foliis lanceolatis, lineâ albâ ſuprà notatis, ſubtùs hirſutie rufeſcentibus. (TABULA 62. Fig, 3.).
 Planta perennis ; caulibus decumbentibus, villous, radicantibus; Folia oppoſita, fubfeflllia, ovata, acuta, ſupernè glabra, virentia, in medio notata lineâ latâ, longitudinali, albâ, venis rubris aſperſa infernè villoſa, pilis rufeſcentibus. Stipula ab utroque latere, ad baſim petiolorum. Flores in capitulum collecti, terminales. Calyx communis, fimbriatus, villoſus, oblongus, acutus, cum vaginâ ad baſim bilobâ, villoſa. Flores paleis villoſis intermixti. Corolla &amp; bacca purpuraſcentes.
 Florebat in ſylvis remotis.
